--- a/public/doc/Template Upload Siswa.xlsx
+++ b/public/doc/Template Upload Siswa.xlsx
@@ -19,6 +19,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Penulisan Kelas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">X 1
+X 2
+X 3
+X 4
+X 5
+X 6
+X 7
+X 8
+X 9
+X 10
+X 11
+X 12
+XI 1
+XI 2
+XI 3
+XI 4
+XI 5
+XI 6
+XI 7
+XI 8
+XI 9
+XI 10
+XI 11
+XII MIPA 1
+XII MIPA 2
+XII MIPA 3
+XII MIPA 4
+XII IPS 1
+XII IPS 2
+XII IPS 3
+XII IPS 4
+XII IPS 5
+XII IPS 6
+XII IPS 7</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
@@ -53,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,6 +138,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,7 +326,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,5 +386,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>